--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_17_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_17_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1614702.163444253</v>
+        <v>1609265.026411473</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12426458.88989895</v>
+        <v>12445480.89855084</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>859256.4419733129</v>
+        <v>417425.6313449002</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10281782.57562863</v>
+        <v>10449072.05263573</v>
       </c>
     </row>
     <row r="11">
@@ -664,19 +664,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="E2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015061</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>232.2791855053265</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>225.1346772411289</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -749,13 +749,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>17.9237627136812</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>54.37039102274979</v>
       </c>
       <c r="I3" t="n">
         <v>43.92180400150558</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>15.07219909888208</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>94.22645365894392</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>2.21468809059066</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>24.58596159177244</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="G5" t="n">
-        <v>411.8707348436268</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>304.326804756183</v>
+        <v>219.4450108596166</v>
       </c>
       <c r="I5" t="n">
-        <v>78.1636065770829</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>59.43180323741222</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -992,10 +992,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>94.50081326185511</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.17372043046388</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>155.2537761190406</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>120.5084574863878</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1071,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>108.0728512656385</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>197.1876907596158</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>248.5684370453857</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>197.6836481114882</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>310.2062045855894</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>105.5027752869404</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>171.1971464172155</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>140.4615936850608</v>
+        <v>409.8053789271548</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>283.1749784766145</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>83.74901076264536</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>196.4617660067105</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>250.9058642207981</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1435,10 +1435,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4021710092738</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>83.82823269715955</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>117.0489563585646</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3090395918922</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478724655842</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>165.5250535492193</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>103.9401063187686</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.41639999081885</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0422364341348</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4093609706218</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1845243123506</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>227.7498188925264</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>92.43352988218061</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>200.6994665666747</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9363529330115</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.606082249036</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>85.79758598644122</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
-        <v>5.272976156705866</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>120.8365182023919</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
-        <v>189.1309449837404</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7612876787265</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>63.80172459594984</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.6960058828134</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>141.8227719694285</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>86.43436349603056</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>74.10303855405819</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>184.0214693750426</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>218.1397936687056</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.193848985092</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.5630920045443</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.32106446352662</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.1970568374742</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1937,10 +1937,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>134.4224477376697</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>84.02406320561457</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.4255876952162</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T18" t="n">
-        <v>188.3907690366107</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U18" t="n">
-        <v>225.7492064608734</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2004,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>24.83266606353065</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2016,7 +2016,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5420528771669</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>89.97676987682902</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1854515484204</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>314.9813656337139</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.5630920045443</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.61259060081967</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.1970568374742</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2174,10 +2174,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>134.4224477376697</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>84.02406320561457</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.4255876952163</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T21" t="n">
-        <v>188.3907690366107</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U21" t="n">
-        <v>225.7492064608734</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2250,16 +2250,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>2.119387955706961</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.338488358459</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4819944627618</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>60.11729550773637</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>87.21471514852939</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>60.11729550773637</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2958,7 +2958,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>172.026033500079</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>140.176011444184</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3195,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>94.91529601901384</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>107.4021082756238</v>
+        <v>94.91529601901384</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>20.88994825141578</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3793,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>20.9284728855285</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4036,7 +4036,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4143,16 +4143,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>23.10998325717172</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1054.855520006025</v>
+        <v>573.7617370571245</v>
       </c>
       <c r="C2" t="n">
-        <v>1054.855520006025</v>
+        <v>573.7617370571245</v>
       </c>
       <c r="D2" t="n">
-        <v>1054.855520006025</v>
+        <v>307.3840804899465</v>
       </c>
       <c r="E2" t="n">
-        <v>788.4778634388466</v>
+        <v>307.3840804899465</v>
       </c>
       <c r="F2" t="n">
-        <v>522.1002068716687</v>
+        <v>300.438579740743</v>
       </c>
       <c r="G2" t="n">
-        <v>287.4747669672984</v>
+        <v>287.4747669672986</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917585</v>
+        <v>49.2826908791759</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052541</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030601</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N2" t="n">
         <v>704.5463761991316</v>
@@ -4363,19 +4363,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>801.1705019471538</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006025</v>
+        <v>801.1705019471538</v>
       </c>
       <c r="W2" t="n">
-        <v>1054.855520006025</v>
+        <v>801.1705019471538</v>
       </c>
       <c r="X2" t="n">
-        <v>1054.855520006025</v>
+        <v>573.7617370571245</v>
       </c>
       <c r="Y2" t="n">
-        <v>1054.855520006025</v>
+        <v>573.7617370571245</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>417.2578640959826</v>
+        <v>738.0038845897966</v>
       </c>
       <c r="C3" t="n">
-        <v>242.8048348148556</v>
+        <v>563.5508553086696</v>
       </c>
       <c r="D3" t="n">
-        <v>242.8048348148556</v>
+        <v>563.5508553086696</v>
       </c>
       <c r="E3" t="n">
-        <v>83.56737980940008</v>
+        <v>404.3134003032141</v>
       </c>
       <c r="F3" t="n">
-        <v>65.46256898749988</v>
+        <v>257.7788423300991</v>
       </c>
       <c r="G3" t="n">
-        <v>65.46256898749988</v>
+        <v>120.3821558791663</v>
       </c>
       <c r="H3" t="n">
         <v>65.46256898749988</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957468</v>
+        <v>192.1295835699346</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298714</v>
+        <v>338.8740072302313</v>
       </c>
       <c r="M3" t="n">
-        <v>503.6022960313625</v>
+        <v>529.4746963267552</v>
       </c>
       <c r="N3" t="n">
-        <v>713.6562631339675</v>
+        <v>739.5286634293602</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560896</v>
+        <v>909.46721075609</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>1026.524810789494</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>906.2192216098647</v>
       </c>
       <c r="T3" t="n">
-        <v>839.7105578442523</v>
+        <v>906.2192216098647</v>
       </c>
       <c r="U3" t="n">
-        <v>839.7105578442523</v>
+        <v>906.2192216098647</v>
       </c>
       <c r="V3" t="n">
-        <v>839.7105578442523</v>
+        <v>906.2192216098647</v>
       </c>
       <c r="W3" t="n">
-        <v>585.4732011160506</v>
+        <v>906.2192216098647</v>
       </c>
       <c r="X3" t="n">
-        <v>585.4732011160506</v>
+        <v>906.2192216098647</v>
       </c>
       <c r="Y3" t="n">
-        <v>585.4732011160506</v>
+        <v>906.2192216098647</v>
       </c>
     </row>
     <row r="4">
@@ -4464,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>309.8226110485074</v>
+        <v>650.177417354891</v>
       </c>
       <c r="C4" t="n">
-        <v>309.8226110485074</v>
+        <v>481.2412344269841</v>
       </c>
       <c r="D4" t="n">
-        <v>159.7059716361716</v>
+        <v>331.1245950146483</v>
       </c>
       <c r="E4" t="n">
-        <v>159.7059716361716</v>
+        <v>183.2115014322552</v>
       </c>
       <c r="F4" t="n">
-        <v>159.7059716361716</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="G4" t="n">
-        <v>159.7059716361716</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H4" t="n">
-        <v>159.7059716361716</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I4" t="n">
         <v>36.32155393434482</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287944</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551007</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375333</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227044</v>
+        <v>739.1822330227048</v>
       </c>
       <c r="O4" t="n">
-        <v>918.469937207554</v>
+        <v>918.4699372075545</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4512,28 +4512,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>830.8847558215722</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>830.8847558215722</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>564.5070992543942</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V4" t="n">
-        <v>309.8226110485074</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W4" t="n">
-        <v>309.8226110485074</v>
+        <v>1052.618461328661</v>
       </c>
       <c r="X4" t="n">
-        <v>309.8226110485074</v>
+        <v>1052.618461328661</v>
       </c>
       <c r="Y4" t="n">
-        <v>309.8226110485074</v>
+        <v>831.8258821851307</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2036.325171642786</v>
+        <v>788.477863438847</v>
       </c>
       <c r="C5" t="n">
-        <v>1667.362654702374</v>
+        <v>788.477863438847</v>
       </c>
       <c r="D5" t="n">
-        <v>1642.52835006422</v>
+        <v>788.477863438847</v>
       </c>
       <c r="E5" t="n">
-        <v>1256.740097465976</v>
+        <v>522.1002068716689</v>
       </c>
       <c r="F5" t="n">
-        <v>845.7541926763686</v>
+        <v>255.7225503044908</v>
       </c>
       <c r="G5" t="n">
-        <v>429.7231473797759</v>
+        <v>242.7587375310464</v>
       </c>
       <c r="H5" t="n">
-        <v>122.3223344947425</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I5" t="n">
-        <v>43.3691965380931</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>152.5078184301904</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8168396232724</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L5" t="n">
-        <v>669.5878927711874</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>1038.148464578731</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N5" t="n">
-        <v>1417.286540135168</v>
+        <v>704.5463761991319</v>
       </c>
       <c r="O5" t="n">
-        <v>1761.960612545598</v>
+        <v>888.5149683358417</v>
       </c>
       <c r="P5" t="n">
-        <v>2021.630958172449</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q5" t="n">
-        <v>2168.459826904655</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R5" t="n">
-        <v>2168.459826904655</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>2036.325171642786</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>2036.325171642786</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>2036.325171642786</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>2036.325171642786</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>2036.325171642786</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X5" t="n">
-        <v>2036.325171642786</v>
+        <v>788.477863438847</v>
       </c>
       <c r="Y5" t="n">
-        <v>2036.325171642786</v>
+        <v>788.477863438847</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>533.4666540631142</v>
+        <v>503.7220043479542</v>
       </c>
       <c r="C6" t="n">
-        <v>473.4345295808797</v>
+        <v>329.2689750668272</v>
       </c>
       <c r="D6" t="n">
-        <v>324.5001199196284</v>
+        <v>180.334565405576</v>
       </c>
       <c r="E6" t="n">
-        <v>165.2626649141729</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F6" t="n">
-        <v>165.2626649141729</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G6" t="n">
-        <v>165.2626649141729</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H6" t="n">
-        <v>69.80729798300611</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I6" t="n">
-        <v>43.3691965380931</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>89.55356510562335</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>246.6448318504523</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L6" t="n">
-        <v>504.1959674104402</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M6" t="n">
-        <v>824.1028628789497</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N6" t="n">
-        <v>1166.885386873582</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O6" t="n">
-        <v>1458.244633128148</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P6" t="n">
-        <v>1853.295032556959</v>
+        <v>1026.524810789494</v>
       </c>
       <c r="Q6" t="n">
-        <v>2154.745546059889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>2168.459826904655</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>2029.495166406373</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>1834.784844880349</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>1606.683255013613</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>1371.531146781871</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W6" t="n">
-        <v>1117.293790053669</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="X6" t="n">
-        <v>909.4422898481362</v>
+        <v>879.6976401329762</v>
       </c>
       <c r="Y6" t="n">
-        <v>701.6819910831823</v>
+        <v>671.9373413680223</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>193.4094100343004</v>
+        <v>158.0472685670598</v>
       </c>
       <c r="C7" t="n">
-        <v>193.4094100343004</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="D7" t="n">
-        <v>193.4094100343004</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="E7" t="n">
-        <v>193.4094100343004</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="F7" t="n">
-        <v>193.4094100343004</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="G7" t="n">
-        <v>193.4094100343004</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H7" t="n">
-        <v>43.3691965380931</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I7" t="n">
-        <v>43.3691965380931</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J7" t="n">
-        <v>58.69630920174243</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
-        <v>213.7203003246707</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L7" t="n">
-        <v>467.6240706728887</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M7" t="n">
-        <v>745.7191196640791</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N7" t="n">
-        <v>1022.636306385109</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O7" t="n">
-        <v>1262.397853152953</v>
+        <v>918.4699372075546</v>
       </c>
       <c r="P7" t="n">
-        <v>1444.034594271087</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q7" t="n">
-        <v>1486.355378693648</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1377.19088246573</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>1178.011396849957</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>954.4075395425804</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>665.2812185166039</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>414.2019891778305</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>414.2019891778305</v>
+        <v>788.477863438847</v>
       </c>
       <c r="X7" t="n">
-        <v>414.2019891778305</v>
+        <v>560.4883125408296</v>
       </c>
       <c r="Y7" t="n">
-        <v>193.4094100343004</v>
+        <v>339.6957333972995</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>944.3110907974333</v>
+        <v>859.685290191162</v>
       </c>
       <c r="C8" t="n">
-        <v>944.3110907974333</v>
+        <v>859.685290191162</v>
       </c>
       <c r="D8" t="n">
-        <v>944.3110907974333</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974333</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078258</v>
+        <v>62.9111328033102</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362819</v>
@@ -4810,46 +4810,46 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.31341879663</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V8" t="n">
-        <v>1644.250531453059</v>
+        <v>2362.658875762289</v>
       </c>
       <c r="W8" t="n">
-        <v>1644.250531453059</v>
+        <v>2009.890220492175</v>
       </c>
       <c r="X8" t="n">
-        <v>1330.910930861555</v>
+        <v>1636.424462231096</v>
       </c>
       <c r="Y8" t="n">
-        <v>1330.910930861555</v>
+        <v>1246.285130255284</v>
       </c>
     </row>
     <row r="9">
@@ -4880,34 +4880,34 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310614</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625332</v>
+        <v>717.852508549538</v>
       </c>
       <c r="M9" t="n">
-        <v>956.2844025217532</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N9" t="n">
-        <v>1343.569531118698</v>
+        <v>1468.399656105704</v>
       </c>
       <c r="O9" t="n">
-        <v>1977.748514897737</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P9" t="n">
-        <v>2224.931248730034</v>
+        <v>2214.708848710447</v>
       </c>
       <c r="Q9" t="n">
-        <v>2548.223678696071</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S9" t="n">
         <v>2426.617474780096</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.24678656800311</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C10" t="n">
-        <v>51.24678656800311</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D10" t="n">
-        <v>51.24678656800311</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800311</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020476</v>
@@ -4971,7 +4971,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4983,31 +4983,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T10" t="n">
-        <v>1333.24891234856</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U10" t="n">
-        <v>1044.130574852398</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V10" t="n">
-        <v>789.4460866465112</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="W10" t="n">
-        <v>500.0289166095505</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X10" t="n">
-        <v>272.0393657115332</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y10" t="n">
-        <v>51.24678656800311</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2071.975386180639</v>
+        <v>2317.747847446864</v>
       </c>
       <c r="C11" t="n">
-        <v>1703.012869240227</v>
+        <v>1948.785330506452</v>
       </c>
       <c r="D11" t="n">
-        <v>1344.747170633477</v>
+        <v>1590.519631899702</v>
       </c>
       <c r="E11" t="n">
-        <v>958.9589180352325</v>
+        <v>1204.731379301457</v>
       </c>
       <c r="F11" t="n">
-        <v>547.973013245625</v>
+        <v>793.7454745118498</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>379.8006473127035</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>93.76531551814344</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>95.2117326369189</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>377.8919112275224</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810554</v>
+        <v>852.2947399039265</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1477.735160302605</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>2205.327574907676</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2949.307003834339</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>3638.490420549521</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>4192.191521035102</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>4559.825241454971</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>4688.265775907172</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>4603.670815540863</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520488</v>
+        <v>4405.224587251257</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794324</v>
+        <v>4151.784320361562</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450753</v>
+        <v>3820.721433017992</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.975386180639</v>
+        <v>3467.952777747877</v>
       </c>
       <c r="X11" t="n">
-        <v>2071.975386180639</v>
+        <v>3094.487019486798</v>
       </c>
       <c r="Y11" t="n">
-        <v>2071.975386180639</v>
+        <v>2704.347687510986</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>943.3595186577119</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>768.9064893765849</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>619.9720797153336</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>460.7346247098781</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>314.2000667367631</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927781</v>
+        <v>178.4402980405268</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064554</v>
+        <v>93.76531551814344</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>93.76531551814344</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>243.3098463766211</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>577.0600934411108</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158134</v>
+        <v>1072.151029113134</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1669.25566728384</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1669.25566728384</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>1859.933680995187</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2283.35044555675</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2516.474143069197</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2553.046693765828</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.815424716773</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2244.604273613852</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2016.576119608211</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1781.424011376468</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1527.186654648267</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1319.335154442734</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1111.57485567778</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1091.613680441807</v>
+        <v>512.8422931857385</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6774975139006</v>
+        <v>512.8422931857385</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>512.8422931857385</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>512.8422931857385</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>365.9523456878281</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>198.755321900738</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>93.76531551814344</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>93.76531551814344</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>173.9372723687378</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>435.5212620398412</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>825.7851432062795</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>1247.652809956952</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1664.924022934745</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>2034.325229908147</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>2326.891096275492</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.01345711646</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>2378.926184398461</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>2196.055238505396</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088493</v>
+        <v>1976.449823383556</v>
       </c>
       <c r="U13" t="n">
-        <v>1927.294548088493</v>
+        <v>1687.374546300373</v>
       </c>
       <c r="V13" t="n">
-        <v>1927.294548088493</v>
+        <v>1432.690058094486</v>
       </c>
       <c r="W13" t="n">
-        <v>1722.044275313594</v>
+        <v>1143.272888057526</v>
       </c>
       <c r="X13" t="n">
-        <v>1494.054724415577</v>
+        <v>915.2833371595084</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.262145272047</v>
+        <v>694.4907580159783</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1838.494616831106</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1469.532099890694</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1111.266401283943</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>725.4781486856991</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>314.4922438960916</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>314.4922438960916</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>84.44192178242855</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>84.44192178242855</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>335.0994200625364</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>761.5085519770287</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1327.408547649586</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>1988.7507675352</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2665.4080043294</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3291.020984046509</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>3790.466187308275</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4117.35598845534</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4222.096089121427</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4128.728887220234</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>3926.002153314502</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>3672.531089745804</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3341.468202402233</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>2988.699547132119</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>2615.233788871039</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2225.094456895227</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5575801601279</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C15" t="n">
-        <v>767.104550879001</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1701412177497</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9326862122941</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3981282391791</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>176.4323885936882</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>89.76816032455569</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>84.44192178242855</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>214.9139636252967</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>214.9139636252967</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>339.3011916059015</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M15" t="n">
-        <v>885.2560368035912</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>1460.069327130067</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1963.691393688578</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2348.559435964193</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2555.914333499373</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
-        <v>2555.914333499373</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S15" t="n">
-        <v>2433.857244406048</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.815885836613</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.774181110627</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.622072878884</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.384716150683</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.53321594515</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.772917180196</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>841.6236153316434</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>777.177428871088</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>777.177428871088</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E16" t="n">
-        <v>629.2643352886948</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>482.3743877907845</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>315.0046848788518</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>171.7493596572069</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>84.44192178242855</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>152.6484119477724</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>394.5694642088845</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>759.6715552029443</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1155.009642160152</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1546.382089455443</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>1891.861594484357</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2163.958312236482</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2268.908895574834</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2194.057341479825</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2008.177069383823</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1787.833843455837</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.7491475113</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1244.064659305413</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1244.064659305413</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1244.064659305413</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1023.272080161883</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.224468905844</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.261951965432</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1589.996253358682</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.208000760437</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.22209597083</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.2389888872364</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>92.81162322608048</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>92.81162322608048</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>372.3074987251932</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>841.9378825128749</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1461.457663018649</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2182.462224957686</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2919.747202874792</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3602.609239333931</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4150.915188021278</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4514.497374127286</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4640.581161304024</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4605.913419421674</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4404.704271100993</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.260941820542</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.198054476972</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.429399206857</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3093.963640945778</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2703.824308969966</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>942.6241165038822</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>768.1710872227552</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>619.2366775615039</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>459.9992225560484</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>313.4646645829333</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>177.6844143428629</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>92.81162322608048</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>92.81162322608048</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>240.4596049779263</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>240.4596049779263</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>240.4596049779263</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>832.4779592300539</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1454.57392262939</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2001.450397629584</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2421.03391605566</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2552.77562977024</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>2552.77562977024</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.163925027597</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>2243.870218930011</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>2015.840717454381</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>1780.688609222638</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>1526.451252494437</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>1318.599752288904</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>1110.83945352395</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>873.8816814720477</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>704.9454985441408</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D19" t="n">
-        <v>554.8288591318051</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>406.915765549412</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>260.0258180515016</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>92.81162322608048</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>92.81162322608048</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>92.81162322608048</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>171.7937461156343</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>431.4224730861979</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>819.184291169332</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1238.413883213791</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1653.109749005498</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2020.132206020528</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2310.662640856732</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2428.375774410167</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2428.375774410167</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2428.375774410167</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2337.490148271956</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>2048.413934586682</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1793.729446380795</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1504.312276343835</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1276.322725445817</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>1055.530146302287</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2266.424947555042</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.261951965432</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1589.996253358682</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.208000760437</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.22209597083</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.2389888872364</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>92.81162322608048</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>92.81162322608048</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>372.3074987251935</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>841.9378825128756</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1461.45766301865</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2182.462224957687</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2919.747202874792</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3602.609239333931</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4150.915188021278</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4514.497374127286</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4640.581161304024</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4555.113898070873</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4353.904749750192</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4100.461420469741</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3769.39853312617</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3416.629877856056</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3043.164119594976</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2653.024787619164</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>942.6241165038822</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>768.1710872227552</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>619.2366775615039</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>459.9992225560484</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>313.4646645829333</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>177.6844143428629</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>92.81162322608048</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>92.81162322608048</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>240.4596049779263</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>240.4596049779263</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>731.1919378216775</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>731.1919378216775</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1353.287901221013</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1900.164376221207</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.747894647283</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2550.30916863253</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>2552.77562977024</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>2434.163925027597</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>2243.870218930011</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>2015.840717454381</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>1780.688609222638</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>1526.451252494437</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>1318.599752288904</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>1110.83945352395</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2774.123721957429</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>2605.187539029522</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>2455.070899617187</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>2307.157806034793</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>2305.017010119938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>2305.017010119938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>2305.017010119938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2305.017010119938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2383.999133009492</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2643.627859980055</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3031.389678063189</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3450.619270107649</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3865.315135899355</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4232.337592914385</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4522.868027750589</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4640.581161304024</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4640.581161304024</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>4457.410971042955</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>4237.732188757337</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>3948.655975072064</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V22" t="n">
-        <v>3693.971486866177</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W22" t="n">
-        <v>3404.554316829217</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>3176.564765931199</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>2955.772186787669</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6010,31 +6010,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6177,22 +6177,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6208,28 +6208,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6247,28 +6247,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797186</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6411,25 +6411,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2390.881471216014</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2171.280006238955</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1882.204779583153</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V28" t="n">
-        <v>1627.520291377266</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W28" t="n">
-        <v>1338.103121340305</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.113570442288</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987577</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6457,7 +6457,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192599</v>
@@ -6472,10 +6472,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,7 +6484,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3342.537229081859</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C31" t="n">
-        <v>3173.601046153952</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D31" t="n">
-        <v>3023.484406741616</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159223</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4517.069482196493</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4517.069482196493</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>4517.069482196493</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V31" t="n">
-        <v>4262.384993990607</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W31" t="n">
-        <v>3972.967823953646</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X31" t="n">
-        <v>3744.978273055629</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y31" t="n">
-        <v>3524.185693912098</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="32">
@@ -6682,37 +6682,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>1052.829365488567</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>883.8931825606599</v>
       </c>
       <c r="D34" t="n">
-        <v>194.8007783998286</v>
+        <v>733.7765431483241</v>
       </c>
       <c r="E34" t="n">
-        <v>194.8007783998286</v>
+        <v>585.863449565931</v>
       </c>
       <c r="F34" t="n">
-        <v>194.8007783998286</v>
+        <v>438.9735020680206</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>271.7774027829005</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1972.677130397314</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1683.259960360354</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1455.270409462336</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>1234.477830318806</v>
       </c>
     </row>
     <row r="35">
@@ -6937,19 +6937,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7013,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>352.5519571452614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>983.3556038098237</v>
+        <v>1052.829365488567</v>
       </c>
       <c r="C37" t="n">
-        <v>814.4194208819168</v>
+        <v>883.8931825606599</v>
       </c>
       <c r="D37" t="n">
-        <v>664.3027814695811</v>
+        <v>733.7765431483241</v>
       </c>
       <c r="E37" t="n">
-        <v>516.389687887188</v>
+        <v>585.863449565931</v>
       </c>
       <c r="F37" t="n">
-        <v>369.4997403892776</v>
+        <v>438.9735020680206</v>
       </c>
       <c r="G37" t="n">
-        <v>202.3036411041575</v>
+        <v>271.7774027829005</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7125,22 +7125,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>2157.887856924458</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="V37" t="n">
-        <v>1903.203368718571</v>
+        <v>1972.677130397314</v>
       </c>
       <c r="W37" t="n">
-        <v>1613.786198681611</v>
+        <v>1683.259960360354</v>
       </c>
       <c r="X37" t="n">
-        <v>1385.796647783593</v>
+        <v>1455.270409462336</v>
       </c>
       <c r="Y37" t="n">
-        <v>1165.004068640063</v>
+        <v>1234.477830318806</v>
       </c>
     </row>
     <row r="38">
@@ -7168,28 +7168,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D40" t="n">
-        <v>323.8164599824514</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>175.9033664000583</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="41">
@@ -7402,19 +7402,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7645,22 +7645,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>264.0500279773688</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>117.1600804794585</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8060,19 +8060,19 @@
         <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>97.32166909127264</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>71.18793141915882</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>26.13373767211334</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8145,7 +8145,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>178.5096609094456</v>
+        <v>178.5096609094458</v>
       </c>
       <c r="N4" t="n">
         <v>171.8177168444618</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>182.3656402706161</v>
+        <v>97.32166909127267</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8546,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>305.1601501039158</v>
+        <v>168.7434581780646</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>35.19601322587788</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>270.4601319683927</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>2.569396338537359</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23323,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23418,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>36.36274399379613</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.29336059121944</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.1864878298223</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>59.32819113353139</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>13.23167357738538</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>103.445096502678</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>24.63391537253447</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23715,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>50.29152613729303</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23892,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>142.4141550350972</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.4539897919539</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.80457674440905</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108359</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>127.5052245859328</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>50.2915261372936</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>143.3016600672243</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440906</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108361</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,13 +24183,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>226.4057028288546</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24508,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,19 +24651,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>226.4057028288546</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24846,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>9.000252501565598</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>146.346986892407</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>45.37941682721005</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>32.8926045706001</v>
+        <v>45.37941682721005</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,10 +25365,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>127.7255247667966</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -25569,7 +25569,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>125.5054897610407</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26031,16 +26031,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>142.4141550350971</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>921589.5822722153</v>
+        <v>918355.8408013927</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>760562.6651412352</v>
+        <v>897979.2755729207</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>851068.3825337461</v>
+        <v>898230.3070642162</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>893316.7962070433</v>
+        <v>898230.3070642162</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>893316.7962070433</v>
+        <v>898230.3070642164</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>898230.3070642164</v>
+        <v>898230.3070642162</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>898230.3070642161</v>
+        <v>898230.3070642164</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>898230.3070642162</v>
+        <v>898230.3070642164</v>
       </c>
     </row>
     <row r="13">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>533677.1504117842</v>
+      </c>
+      <c r="C2" t="n">
         <v>533677.150411784</v>
       </c>
-      <c r="C2" t="n">
-        <v>533677.1504117846</v>
-      </c>
       <c r="D2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.150411784</v>
       </c>
       <c r="E2" t="n">
-        <v>443296.2286621968</v>
+        <v>524496.9530081926</v>
       </c>
       <c r="F2" t="n">
-        <v>496776.8798486808</v>
+        <v>524645.289798504</v>
       </c>
       <c r="G2" t="n">
-        <v>521741.8515647199</v>
+        <v>524645.289798504</v>
       </c>
       <c r="H2" t="n">
-        <v>521741.8515647199</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="I2" t="n">
         <v>524645.289798504</v>
@@ -26343,7 +26343,7 @@
         <v>524645.289798504</v>
       </c>
       <c r="L2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="M2" t="n">
         <v>524645.2897985039</v>
@@ -26365,46 +26365,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>308174.1417414041</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>99404.18284596034</v>
+        <v>391128.3638059436</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171905</v>
+        <v>506886.0326267303</v>
       </c>
       <c r="F3" t="n">
-        <v>208781.7516454635</v>
+        <v>585.0966390524521</v>
       </c>
       <c r="G3" t="n">
-        <v>95052.24834831202</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>10818.91345744905</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.1544191141</v>
       </c>
       <c r="K3" t="n">
-        <v>71651.52831447174</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>24921.83922824942</v>
+        <v>95382.64613756983</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341485</v>
+        <v>132447.3436061346</v>
       </c>
       <c r="N3" t="n">
-        <v>54893.66793774364</v>
+        <v>157.2049554786157</v>
       </c>
       <c r="O3" t="n">
-        <v>25177.21277645353</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>251227.3656190198</v>
       </c>
       <c r="C4" t="n">
-        <v>168399.8133469393</v>
+        <v>251227.3656190198</v>
       </c>
       <c r="D4" t="n">
         <v>140338.6838374606</v>
       </c>
       <c r="E4" t="n">
-        <v>10990.29103211609</v>
+        <v>11166.69849988048</v>
       </c>
       <c r="F4" t="n">
-        <v>11106.28211634257</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
-        <v>11160.49963056816</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
-        <v>11160.49963056816</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
         <v>11167.03225179351</v>
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="C5" t="n">
-        <v>85199.0818558723</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>101072.4410767589</v>
       </c>
       <c r="F5" t="n">
-        <v>91920.0035356755</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>100142.1285138384</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>100142.1285138384</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-460685.9990026951</v>
+        <v>-460685.999002695</v>
       </c>
       <c r="C6" t="n">
-        <v>-28095.88653243106</v>
+        <v>219401.981588498</v>
       </c>
       <c r="D6" t="n">
-        <v>200996.5112885187</v>
+        <v>-90727.66967146506</v>
       </c>
       <c r="E6" t="n">
-        <v>175926.6172514969</v>
+        <v>-94981.30371069981</v>
       </c>
       <c r="F6" t="n">
-        <v>184968.8425511992</v>
+        <v>411423.2518293939</v>
       </c>
       <c r="G6" t="n">
-        <v>315386.9750720015</v>
+        <v>412008.3484684463</v>
       </c>
       <c r="H6" t="n">
-        <v>410439.2234203136</v>
+        <v>412008.3484684462</v>
       </c>
       <c r="I6" t="n">
-        <v>401536.8142653543</v>
+        <v>412008.3484684463</v>
       </c>
       <c r="J6" t="n">
-        <v>343356.5733036891</v>
+        <v>343009.1940493321</v>
       </c>
       <c r="K6" t="n">
-        <v>340704.1994083316</v>
+        <v>412008.3484684464</v>
       </c>
       <c r="L6" t="n">
-        <v>387433.8884945539</v>
+        <v>316625.7023308764</v>
       </c>
       <c r="M6" t="n">
-        <v>364803.4619293883</v>
+        <v>279561.0048623116</v>
       </c>
       <c r="N6" t="n">
-        <v>357462.0597850597</v>
+        <v>411851.1435129677</v>
       </c>
       <c r="O6" t="n">
-        <v>387178.5149463498</v>
+        <v>412008.3484684463</v>
       </c>
       <c r="P6" t="n">
-        <v>412355.7277228033</v>
+        <v>412008.3484684463</v>
       </c>
     </row>
   </sheetData>
@@ -26740,22 +26740,22 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>853.7106645376848</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1367.467948760087</v>
       </c>
       <c r="F3" t="n">
-        <v>1272.667109221551</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
-        <v>1358.041048716385</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
-        <v>1358.041048716385</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>542.1149567261638</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>1172.066443976793</v>
       </c>
       <c r="F4" t="n">
-        <v>1055.524022280357</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1160.145290326006</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1160.145290326006</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26962,25 +26962,25 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>239.6556507682064</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>80.35422757985452</v>
+        <v>320.0098783480611</v>
       </c>
       <c r="E3" t="n">
-        <v>155.711808475759</v>
+        <v>433.4030566425478</v>
       </c>
       <c r="F3" t="n">
-        <v>182.8904086282528</v>
+        <v>0.5075515815865401</v>
       </c>
       <c r="G3" t="n">
-        <v>85.3739394948343</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>9.934451625288602</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,46 +27011,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>278.4010767246576</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>98.46987537387508</v>
+        <v>376.8709520985328</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022538</v>
+        <v>531.481611876754</v>
       </c>
       <c r="F4" t="n">
-        <v>224.1225668780642</v>
+        <v>0.6418441228554457</v>
       </c>
       <c r="G4" t="n">
-        <v>104.6212680456492</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>12.56299777364211</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
-        <v>278.4010767246579</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>98.46987537387508</v>
+        <v>376.8709520985331</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022538</v>
+        <v>531.481611876754</v>
       </c>
       <c r="N4" t="n">
-        <v>224.1225668780643</v>
+        <v>0.6418441228554457</v>
       </c>
       <c r="O4" t="n">
-        <v>104.6212680456492</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
-        <v>278.4010767246576</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>98.46987537387508</v>
+        <v>376.8709520985328</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022538</v>
+        <v>531.481611876754</v>
       </c>
       <c r="N4" t="n">
-        <v>224.1225668780642</v>
+        <v>0.6418441228554457</v>
       </c>
       <c r="O4" t="n">
-        <v>104.6212680456492</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27384,19 +27384,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>90.9691616191767</v>
       </c>
       <c r="E2" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402053</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>180.5549891403835</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>50.47975262776184</v>
+        <v>50.47975262776174</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -27435,7 +27435,7 @@
         <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>144.5964234373401</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27469,13 +27469,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>127.1454496797027</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>45.10892924845996</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
@@ -27520,7 +27520,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.8836670385466</v>
@@ -27557,7 +27557,7 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>110.4927105846498</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117135</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>284.3083102460004</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>330.0970800289105</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>118.2164900707555</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>143.1621657402052</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>94.74862176965141</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>208.0722578696039</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0710926941158</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769628</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27697,7 +27697,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>113.2766957509035</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27709,13 +27709,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.5072338470352</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,22 +27745,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>50.51920908443688</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>46.73836361224004</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27788,13 +27788,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.4515011109318</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>109.1541654470835</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>3.569206278442323</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508475</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27861,19 +27861,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>130.0686103586467</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>59.52489609287966</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
@@ -28061,19 +28061,19 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>115.2459207102716</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>80.94049690661248</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.432002671508278</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
-        <v>35.14799735958416</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>132.312282993323</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
-        <v>291.286936740926</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>436.5636098258715</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
-        <v>541.5957615840431</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>602.6296390934783</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>612.3808166839013</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>578.2538401190908</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
-        <v>493.5262741662302</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q5" t="n">
-        <v>370.6176784928398</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R5" t="n">
-        <v>215.5855378141321</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>78.20676087699496</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
-        <v>15.02359169452749</v>
+        <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2745602137206622</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.836283316175398</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H6" t="n">
-        <v>17.73463097464134</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>63.2229124209512</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>173.4885040076063</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
-        <v>296.5194861913579</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>398.7070419616801</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
-        <v>465.2723121730381</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N6" t="n">
-        <v>477.5866858152847</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>436.8985133884509</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>350.6495746475634</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
-        <v>234.3999545349508</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>114.0106430867497</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
-        <v>34.10815721053861</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>7.40151038405785</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1208081129062762</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.539478247526972</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>13.68736114619436</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
-        <v>46.29630948017478</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>108.8411121001569</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>178.8593818490428</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
-        <v>228.8784296368737</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M7" t="n">
-        <v>241.3202129282508</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N7" t="n">
-        <v>235.582157642014</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>217.5982526595398</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
-        <v>186.1928964099894</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.9103103451904</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>69.22054011153094</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>26.82890727735641</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>6.577770693978881</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.08397154077419859</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31521,28 +31521,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
         <v>405.5015080147052</v>
@@ -31557,7 +31557,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,7 +31594,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
@@ -31606,10 +31606,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040589</v>
@@ -31618,7 +31618,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378626</v>
@@ -31630,10 +31630,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31679,19 +31679,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>5.497358587980246</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>56.29982363915271</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>211.9369169631086</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>466.5814384565888</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>699.2846274857927</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>867.5244153726934</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>965.2880661616871</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>980.907436249786</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>926.2430767905574</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>790.5270366497949</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>593.6528822177522</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>345.3234514022144</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>125.2710588236</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>24.06468721888354</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.4397886870384196</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.941346153936792</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>28.40721153933691</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>277.8927083418967</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>474.9629006556617</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>638.6462339940389</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>745.2700320742474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>335.20029869833</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>561.6681089916668</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>375.4602564218263</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>182.6214743646019</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>54.63421474527326</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>11.85568910292943</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1935096153905785</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>2.465925809239501</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>21.92432219487485</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>74.15711433603884</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>174.3409547132327</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>286.4957440189165</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>366.6159153118437</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>386.5450793519701</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>377.3539013357141</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>348.5474043823253</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>298.2425178738392</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>206.4876602627732</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>110.8769913863506</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>42.97436160283748</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>10.53622845765968</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1345050441403366</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.116249685312765</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>52.39679208970936</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>197.2442159930205</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>434.2352967288146</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>650.8061459081041</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>807.3825722149948</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>898.3686775561756</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>912.9052219745705</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>862.0305141662417</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>735.7231000600827</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.4974082048192</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>321.3836192950282</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>116.5865397040647</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>22.39638299745664</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4092999748250211</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.737434914174657</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>26.43785825005525</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>94.24940384329413</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>258.627567922089</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>264.1980444067478</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M15" t="n">
-        <v>693.6035745257452</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>711.9611972615921</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>651.3054025843536</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>522.7300056725273</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>349.4311655356984</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>50.8466529014459</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.03378371108118</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1800944022483328</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.29497347564542</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>20.40440053801111</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>69.01611143122773</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>162.2546247281312</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>266.6341910795314</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>341.1999656427745</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>359.747524005036</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>351.1935319594489</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>324.3840690848637</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>277.5666101816968</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>192.1727334924542</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
-        <v>103.1903528231113</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>39.99512866192971</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
-        <v>9.805795759575881</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1251803713988412</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.459461502377424</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>55.91171011122281</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>463.3649706874064</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>694.4639760830429</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>861.5439710364261</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>958.6336695293306</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>974.1453645229606</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>919.857844208695</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>785.0773883687522</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>589.5604233148605</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>342.9428985987162</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>124.4074789854257</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>23.89879272665719</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4367569201901939</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.921069425540904</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.2113810308819</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>275.9770021735817</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>740.13237155043</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>759.7214730927636</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
-        <v>694.9967242426203</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>557.7961431982452</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>273.0542121815567</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.25758340862159</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.77395965821092</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.448926481291842</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.77318271548567</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>73.64589818284924</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>173.1391022273332</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>284.5207311900885</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>364.0885788640618</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>383.8803574265021</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>374.7525405416873</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>346.1446266465962</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>296.1865264282423</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>205.0641983561742</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
-        <v>110.1126397860859</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.67810967851327</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
-        <v>10.46359496551969</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.459461502377423</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>55.9117101112228</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704058</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>463.3649706874063</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>694.4639760830428</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>861.543971036426</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>958.6336695293305</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>974.1453645229604</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>919.8578442086948</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>785.0773883687521</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>589.5604233148604</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>342.9428985987161</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>124.4074789854257</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>23.89879272665718</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4367569201901938</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.921069425540904</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.21138103088189</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>275.9770021735817</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>634.2436048745723</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>759.7214730927635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>694.9967242426202</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>557.7961431982451</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>372.8719498286951</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>148.1708788505399</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.25758340862158</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.77395965821092</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1921756201013753</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.448926481291842</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.77318271548566</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>73.64589818284922</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>173.1391022273332</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>284.5207311900884</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>364.0885788640617</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>383.880357426502</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>374.7525405416873</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>346.1446266465961</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>296.1865264282423</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>205.0641983561742</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
-        <v>110.1126397860859</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.67810967851327</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
-        <v>10.46359496551968</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,13 +32785,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32803,10 +32803,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33022,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33259,31 +33259,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33733,16 +33733,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>248.0319961154043</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,10 +33751,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33970,31 +33970,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34207,16 +34207,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,13 +34225,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34444,31 +34444,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34780,19 +34780,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>172.7600739089031</v>
       </c>
       <c r="L3" t="n">
         <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
-        <v>263.7138800015061</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
         <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>197.7888359819415</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
         <v>118.240000033741</v>
@@ -34865,7 +34865,7 @@
         <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458916</v>
+        <v>213.1601163458918</v>
       </c>
       <c r="N4" t="n">
         <v>213.581156752698</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>110.2410322142397</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>216.4737587808909</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>305.8293466140559</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>372.2834058662056</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>382.9677530873104</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>348.155628697404</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>262.2932784109606</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>148.3119886183904</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>46.65087734093964</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>158.6780472169989</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L6" t="n">
-        <v>260.1526621818059</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
-        <v>323.1382782510198</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>346.2449737319514</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>294.3022689440064</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>399.0408075038493</v>
+        <v>215.5616691250137</v>
       </c>
       <c r="Q6" t="n">
-        <v>304.4954681847784</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
-        <v>13.85280893410659</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.48193198348417</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>156.5898900231599</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L7" t="n">
-        <v>256.4684548971899</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M7" t="n">
-        <v>280.9040898900913</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N7" t="n">
-        <v>279.7143300212426</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O7" t="n">
-        <v>242.1833805735795</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>183.4714556748829</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>42.74826709349601</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820406</v>
@@ -35266,7 +35266,7 @@
         <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>640.5848321000389</v>
+        <v>504.1681401741877</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235323</v>
@@ -35275,7 +35275,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>14.258232024328</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
@@ -35339,7 +35339,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.461027392702732</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>285.5355339299026</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>479.1947764408122</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>631.7580004027061</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>734.9418329344144</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>751.4943726531951</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>696.1448653688707</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>559.2940408945253</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>371.3471923433027</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>129.7379135880823</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>151.05508167523</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>337.1214616813027</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>500.0918542141647</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>603.1359981522291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>192.6040542538856</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>427.6937015773366</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>235.4784823358048</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>36.94197040063796</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>80.98177459655994</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>264.2262521930337</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>394.2059405721599</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>426.1289563138107</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>421.4860737149427</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>373.132532296365</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>295.5210771387327</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>120.3256170110788</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>253.1893922021283</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>430.7162948631236</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>571.6161572450076</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>668.0224443289029</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>683.4921583779796</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>631.9323027445549</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>504.4901043048132</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>330.1917183303697</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>105.7980814808961</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>131.7899412554223</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>125.6436646268736</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M15" t="n">
-        <v>551.469540603727</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>580.6194851782589</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>508.7091581399092</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>388.7555982581971</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>209.4493914496769</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>68.8954446114584</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>244.3646992536486</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>368.7899909030907</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>399.3314009668766</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>395.3257043386775</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>348.9691969989033</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>274.8451694465903</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>106.0106902407598</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>282.3190661607201</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>474.3741250380623</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>625.7775560664388</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>728.2874363020579</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>744.7323009263696</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>689.7596327870083</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>553.8443926134826</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>367.254733440411</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>127.357360784584</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>149.139375506915</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>597.9983376284117</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>628.3797610094304</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
-        <v>552.4004797981759</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>423.821735783915</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>133.0724380955352</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>79.77992211066046</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>262.2512393642056</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>391.6786041243779</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>423.4642343883427</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>418.8847129209159</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>370.7297545606359</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>293.4650856931358</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>118.9021551044798</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>282.31906616072</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>474.3741250380622</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7775560664388</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>728.2874363020578</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>744.7323009263696</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>689.7596327870081</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>553.8443926134826</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>367.2547334404109</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>127.357360784584</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>149.139375506915</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>495.6892250946981</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>628.3797610094302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>552.4004797981758</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>423.8217357839148</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>232.8901757426735</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>2.491374886575972</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.77992211066044</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>262.2512393642056</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>391.6786041243779</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>423.4642343883426</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>418.8847129209158</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>370.7297545606358</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>293.4650856931358</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>118.9021551044798</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36451,10 +36451,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>110.1905571410453</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,10 +37399,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,13 +37873,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_17_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_17_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1609265.026411473</v>
+        <v>1611805.678004066</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12445480.89855084</v>
+        <v>12426458.88989895</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>417425.6313449002</v>
+        <v>859256.4419733187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10449072.05263573</v>
+        <v>10281782.57562863</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>219.4450108596165</v>
       </c>
       <c r="D2" t="n">
         <v>263.7138800015063</v>
@@ -670,61 +670,61 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="G2" t="n">
         <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>263.7138800015063</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>251.1481678782825</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>225.1346772411289</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>53.99290905952152</v>
       </c>
       <c r="H3" t="n">
-        <v>54.37039102274979</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,16 +788,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>68.98787350302095</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>2.21468809059066</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>263.7138800015063</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>12.83417464571001</v>
+        <v>11.87073484362677</v>
       </c>
       <c r="H5" t="n">
-        <v>219.4450108596166</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>263.7138800015063</v>
+        <v>196.1652297663311</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -986,16 +986,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.17372043046393</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>64.76801912616891</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>155.2537761190406</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>120.5084574863878</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>56.98673009951676</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015063</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>208.2474868886332</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>197.6836481114882</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>50.98074812542834</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>171.1971464172155</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>298.3550417046039</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8053789271548</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1749784766145</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.74901076264536</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>196.4617660067105</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9058642207981</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.4021710092738</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>83.82823269715955</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0489563585646</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
-        <v>188.3090395918922</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7478724655842</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1533,19 +1533,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5250535492193</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>103.9401063187686</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.41639999081885</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0422364341348</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4093609706218</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1845243123506</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>190.6045469959057</v>
       </c>
     </row>
     <row r="14">
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>410.1864878298223</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>287.078010026058</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>13.23167357738618</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>92.43352988218109</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>338.6205676373891</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.4010792945512</v>
+        <v>134.606082249036</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>85.79758598644133</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>5.272976156706264</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,13 +1736,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>120.8365182023921</v>
       </c>
       <c r="T15" t="n">
-        <v>188.3046392154443</v>
+        <v>189.1309449837405</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7612876787265</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>1.856883923321823</v>
       </c>
       <c r="E16" t="n">
-        <v>121.8000472740347</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.6960058828134</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>141.8227719694285</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>74.10303855405861</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>218.1397936687057</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1938489850921</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060081966</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>277.4607323328424</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1937,10 +1937,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T18" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U18" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2004,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>24.83266606353065</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2016,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>76.8756502180785</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.80457674440905</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>200.6173698503539</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2174,10 +2174,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T21" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U21" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2241,10 +2241,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2253,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>105.3798824585323</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>60.11729550773637</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2377,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,19 +2769,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>60.11729550773637</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>135.3135037226517</v>
       </c>
     </row>
     <row r="29">
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>140.176011444184</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>94.91529601901384</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>26.07046444232026</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3438,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>94.91529601901384</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624796</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>573.7617370571245</v>
+        <v>788.477863438847</v>
       </c>
       <c r="C2" t="n">
-        <v>573.7617370571245</v>
+        <v>566.8162363079211</v>
       </c>
       <c r="D2" t="n">
-        <v>307.3840804899465</v>
+        <v>300.438579740743</v>
       </c>
       <c r="E2" t="n">
-        <v>307.3840804899465</v>
+        <v>300.438579740743</v>
       </c>
       <c r="F2" t="n">
-        <v>300.438579740743</v>
+        <v>34.06092317356496</v>
       </c>
       <c r="G2" t="n">
-        <v>287.4747669672986</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H2" t="n">
         <v>21.0971104001205</v>
@@ -4330,22 +4330,22 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.2826908791759</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
         <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991319</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358417</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4363,19 +4363,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>801.1705019471538</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>801.1705019471538</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W2" t="n">
-        <v>801.1705019471538</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X2" t="n">
-        <v>573.7617370571245</v>
+        <v>788.477863438847</v>
       </c>
       <c r="Y2" t="n">
-        <v>573.7617370571245</v>
+        <v>788.477863438847</v>
       </c>
     </row>
     <row r="3">
@@ -4385,31 +4385,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>738.0038845897966</v>
+        <v>383.8072670461419</v>
       </c>
       <c r="C3" t="n">
-        <v>563.5508553086696</v>
+        <v>383.8072670461419</v>
       </c>
       <c r="D3" t="n">
-        <v>563.5508553086696</v>
+        <v>234.8728573848907</v>
       </c>
       <c r="E3" t="n">
-        <v>404.3134003032141</v>
+        <v>75.63540237943516</v>
       </c>
       <c r="F3" t="n">
-        <v>257.7788423300991</v>
+        <v>75.63540237943516</v>
       </c>
       <c r="G3" t="n">
-        <v>120.3821558791663</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>117.4455628004804</v>
       </c>
       <c r="K3" t="n">
         <v>192.1295835699346</v>
@@ -4436,25 +4436,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>906.2192216098647</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>906.2192216098647</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U3" t="n">
-        <v>906.2192216098647</v>
+        <v>826.7196740428385</v>
       </c>
       <c r="V3" t="n">
-        <v>906.2192216098647</v>
+        <v>591.5675658110958</v>
       </c>
       <c r="W3" t="n">
-        <v>906.2192216098647</v>
+        <v>591.5675658110958</v>
       </c>
       <c r="X3" t="n">
-        <v>906.2192216098647</v>
+        <v>591.5675658110958</v>
       </c>
       <c r="Y3" t="n">
-        <v>906.2192216098647</v>
+        <v>383.8072670461419</v>
       </c>
     </row>
     <row r="4">
@@ -4464,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>650.177417354891</v>
+        <v>803.5223344656631</v>
       </c>
       <c r="C4" t="n">
-        <v>481.2412344269841</v>
+        <v>634.5861515377562</v>
       </c>
       <c r="D4" t="n">
-        <v>331.1245950146483</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="E4" t="n">
-        <v>183.2115014322552</v>
+        <v>336.5564185430274</v>
       </c>
       <c r="F4" t="n">
-        <v>36.32155393434482</v>
+        <v>189.666471045117</v>
       </c>
       <c r="G4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L4" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M4" t="n">
         <v>527.7368878375338</v>
@@ -4521,19 +4521,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.855520006025</v>
+        <v>985.1707992959028</v>
       </c>
       <c r="V4" t="n">
-        <v>1054.855520006025</v>
+        <v>985.1707992959028</v>
       </c>
       <c r="W4" t="n">
-        <v>1052.618461328661</v>
+        <v>985.1707992959028</v>
       </c>
       <c r="X4" t="n">
-        <v>1052.618461328661</v>
+        <v>985.1707992959028</v>
       </c>
       <c r="Y4" t="n">
-        <v>831.8258821851307</v>
+        <v>985.1707992959028</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>788.477863438847</v>
+        <v>1193.573958131052</v>
       </c>
       <c r="C5" t="n">
-        <v>788.477863438847</v>
+        <v>824.6114411906398</v>
       </c>
       <c r="D5" t="n">
-        <v>788.477863438847</v>
+        <v>466.3457425838893</v>
       </c>
       <c r="E5" t="n">
-        <v>522.1002068716689</v>
+        <v>466.3457425838893</v>
       </c>
       <c r="F5" t="n">
-        <v>255.7225503044908</v>
+        <v>55.35983779428172</v>
       </c>
       <c r="G5" t="n">
-        <v>242.7587375310464</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H5" t="n">
-        <v>21.0971104001205</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I5" t="n">
-        <v>21.0971104001205</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052542</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515907</v>
+        <v>669.5878927711874</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030605</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991319</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358417</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P5" t="n">
-        <v>1011.026904601763</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q5" t="n">
-        <v>1054.855520006025</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R5" t="n">
-        <v>1054.855520006025</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006025</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="W5" t="n">
-        <v>1054.855520006025</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="X5" t="n">
-        <v>788.477863438847</v>
+        <v>1970.313130170985</v>
       </c>
       <c r="Y5" t="n">
-        <v>788.477863438847</v>
+        <v>1580.173798195173</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>503.7220043479542</v>
+        <v>931.2981106200058</v>
       </c>
       <c r="C6" t="n">
-        <v>329.2689750668272</v>
+        <v>756.8450813388788</v>
       </c>
       <c r="D6" t="n">
-        <v>180.334565405576</v>
+        <v>607.9106716776275</v>
       </c>
       <c r="E6" t="n">
-        <v>21.0971104001205</v>
+        <v>448.6732166721721</v>
       </c>
       <c r="F6" t="n">
-        <v>21.0971104001205</v>
+        <v>302.138658699057</v>
       </c>
       <c r="G6" t="n">
-        <v>21.0971104001205</v>
+        <v>165.2626649141729</v>
       </c>
       <c r="H6" t="n">
-        <v>21.0971104001205</v>
+        <v>69.80729798300612</v>
       </c>
       <c r="I6" t="n">
-        <v>21.0971104001205</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J6" t="n">
-        <v>21.0971104001205</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957469</v>
+        <v>333.5994704680805</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298714</v>
+        <v>591.1506060280681</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263952</v>
+        <v>911.0575014965773</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290002</v>
+        <v>1253.840025491209</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557301</v>
+        <v>1545.199271745775</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789494</v>
+        <v>2074.985828260213</v>
       </c>
       <c r="Q6" t="n">
-        <v>1054.855520006025</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212815</v>
+        <v>2029.495166406371</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212815</v>
+        <v>1834.784844880347</v>
       </c>
       <c r="U6" t="n">
-        <v>1036.519636212815</v>
+        <v>1834.784844880347</v>
       </c>
       <c r="V6" t="n">
-        <v>1036.519636212815</v>
+        <v>1769.362603338762</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.519636212815</v>
+        <v>1515.12524661056</v>
       </c>
       <c r="X6" t="n">
-        <v>879.6976401329762</v>
+        <v>1307.273746405028</v>
       </c>
       <c r="Y6" t="n">
-        <v>671.9373413680223</v>
+        <v>1099.513447640074</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>158.0472685670598</v>
+        <v>212.305379466</v>
       </c>
       <c r="C7" t="n">
-        <v>36.32155393434482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D7" t="n">
-        <v>36.32155393434482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E7" t="n">
-        <v>36.32155393434482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434482</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J7" t="n">
-        <v>21.0971104001205</v>
+        <v>58.6963092017423</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287949</v>
+        <v>213.7203003246705</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551011</v>
+        <v>467.6240706728883</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375338</v>
+        <v>745.7191196640786</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227047</v>
+        <v>1022.636306385109</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075546</v>
+        <v>1262.397853152952</v>
       </c>
       <c r="P7" t="n">
-        <v>1048.360858816803</v>
+        <v>1444.034594271086</v>
       </c>
       <c r="Q7" t="n">
-        <v>1054.855520006025</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>1428.793025057772</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>1205.189167750395</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006025</v>
+        <v>1205.189167750395</v>
       </c>
       <c r="V7" t="n">
-        <v>1054.855520006025</v>
+        <v>950.504679544508</v>
       </c>
       <c r="W7" t="n">
-        <v>788.477863438847</v>
+        <v>661.0875095075475</v>
       </c>
       <c r="X7" t="n">
-        <v>560.4883125408296</v>
+        <v>433.0979586095301</v>
       </c>
       <c r="Y7" t="n">
-        <v>339.6957333972995</v>
+        <v>212.305379466</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>859.685290191162</v>
+        <v>1785.600156360222</v>
       </c>
       <c r="C8" t="n">
-        <v>859.685290191162</v>
+        <v>1416.637639419811</v>
       </c>
       <c r="D8" t="n">
-        <v>859.685290191162</v>
+        <v>1058.37194081306</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>672.583688214816</v>
       </c>
       <c r="F8" t="n">
-        <v>62.9111328033102</v>
+        <v>261.5977834252084</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
         <v>795.7553530872915</v>
@@ -4819,10 +4819,10 @@
         <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
         <v>2542.250581723851</v>
@@ -4840,16 +4840,16 @@
         <v>2562.339328400156</v>
       </c>
       <c r="V8" t="n">
-        <v>2362.658875762289</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="W8" t="n">
-        <v>2009.890220492175</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="X8" t="n">
-        <v>1636.424462231096</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="Y8" t="n">
-        <v>1246.285130255284</v>
+        <v>2172.199996424344</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
@@ -4880,31 +4880,31 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370162</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>423.1489515180662</v>
+        <v>507.2413987429764</v>
       </c>
       <c r="L9" t="n">
-        <v>717.852508549538</v>
+        <v>801.9449557744481</v>
       </c>
       <c r="M9" t="n">
-        <v>1081.114527508758</v>
+        <v>1165.206974733668</v>
       </c>
       <c r="N9" t="n">
-        <v>1468.399656105704</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878149</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710447</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676483</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400156</v>
@@ -4922,10 +4922,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>833.0891146802707</v>
+        <v>716.5983551657496</v>
       </c>
       <c r="C10" t="n">
-        <v>664.1529317523638</v>
+        <v>547.6621722378427</v>
       </c>
       <c r="D10" t="n">
-        <v>514.036292340028</v>
+        <v>397.5455328255069</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576349</v>
+        <v>249.6324392431138</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>102.7424917452035</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4983,31 +4983,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1463.519709552058</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>1463.519709552058</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X10" t="n">
-        <v>1235.53015865404</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y10" t="n">
-        <v>1014.73757951051</v>
+        <v>898.2468199959893</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.747847446864</v>
+        <v>1934.181533884357</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.785330506452</v>
+        <v>1565.219016943946</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.519631899702</v>
+        <v>1206.953318337195</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.731379301457</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7454745118498</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8006473127035</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
-        <v>93.76531551814344</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>95.2117326369189</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
-        <v>377.8919112275224</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>852.2947399039265</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1477.735160302605</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>2205.327574907676</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2949.307003834339</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>3638.490420549521</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>4192.191521035102</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>4559.825241454971</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
-        <v>4688.265775907172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>4603.670815540863</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.224587251257</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.784320361562</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.721433017992</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.952777747877</v>
+        <v>2609.016021139987</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.487019486798</v>
+        <v>2235.550262878907</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.347687510986</v>
+        <v>2235.550262878907</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.3595186577119</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>768.9064893765849</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>619.9720797153336</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7346247098781</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2000667367631</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4402980405268</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>93.76531551814344</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I12" t="n">
-        <v>93.76531551814344</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
-        <v>243.3098463766211</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K12" t="n">
-        <v>577.0600934411108</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.151029113134</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M12" t="n">
-        <v>1669.25566728384</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1669.25566728384</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.933680995187</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.35044555675</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.474143069197</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2553.046693765828</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.815424716773</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2244.604273613852</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2016.576119608211</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1781.424011376468</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1527.186654648267</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1319.335154442734</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1111.57485567778</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>512.8422931857385</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="C13" t="n">
-        <v>512.8422931857385</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="D13" t="n">
-        <v>512.8422931857385</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E13" t="n">
-        <v>512.8422931857385</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F13" t="n">
-        <v>365.9523456878281</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G13" t="n">
-        <v>198.755321900738</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H13" t="n">
-        <v>93.76531551814344</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I13" t="n">
-        <v>93.76531551814344</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
-        <v>173.9372723687378</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K13" t="n">
-        <v>435.5212620398412</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L13" t="n">
-        <v>825.7851432062795</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>1247.652809956952</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N13" t="n">
-        <v>1664.924022934745</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>2034.325229908147</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
-        <v>2326.891096275492</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.01345711646</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R13" t="n">
-        <v>2378.926184398461</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S13" t="n">
-        <v>2196.055238505396</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T13" t="n">
-        <v>1976.449823383556</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U13" t="n">
-        <v>1687.374546300373</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V13" t="n">
-        <v>1432.690058094486</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W13" t="n">
-        <v>1143.272888057526</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="X13" t="n">
-        <v>915.2833371595084</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="Y13" t="n">
-        <v>694.4907580159783</v>
+        <v>398.2772206747588</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2326.117195155085</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1957.154678214673</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1598.888979607923</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1213.100727009678</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>802.1148222200709</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>387.7850365333817</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>97.80724862827265</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>84.44192178242803</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>335.0994200625328</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>761.5085519770223</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1327.408547649577</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>1988.750767535187</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2665.408004329383</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3291.020984046489</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>3790.466187308251</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4117.355988455315</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4222.096089121401</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4128.728887220208</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4128.728887220208</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4128.728887220208</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3797.665999876637</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3444.897344606523</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3102.856367195019</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2712.717035219207</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5575801601279</v>
       </c>
       <c r="C15" t="n">
-        <v>768.9460839967196</v>
+        <v>767.104550879001</v>
       </c>
       <c r="D15" t="n">
-        <v>620.0116743354683</v>
+        <v>618.1701412177497</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>458.9326862122941</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>312.3981282391791</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>176.4323885936882</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>89.76816032455557</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>84.44192178242803</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>84.44192178242803</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>385.594247297884</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>836.853254613851</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1382.808099811538</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1957.621390138011</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1963.691393688582</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2348.559435964195</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2555.914333499374</v>
       </c>
       <c r="R15" t="n">
-        <v>2553.061288060775</v>
+        <v>2555.914333499374</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.850501963388</v>
+        <v>2433.857244406048</v>
       </c>
       <c r="T15" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.815885836613</v>
       </c>
       <c r="U15" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.774181110627</v>
       </c>
       <c r="V15" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.622072878884</v>
       </c>
       <c r="W15" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.384716150683</v>
       </c>
       <c r="X15" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.53321594515</v>
       </c>
       <c r="Y15" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.772917180196</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>691.7456313228969</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>691.7456313228969</v>
       </c>
       <c r="D16" t="n">
-        <v>363.7369613277355</v>
+        <v>689.8699909963092</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>541.9568974139161</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>395.0669499160057</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>227.697247004073</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>84.44192178242803</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>84.44192178242803</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>152.6484119477712</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>394.5694642088822</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>759.6715552029406</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1155.009642160147</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1546.382089455436</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>1891.861594484349</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2163.958312236472</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2268.908895574824</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2194.057341479815</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2194.057341479815</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1973.71411555183</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1684.629419607292</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1429.944931401405</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1140.527761364444</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>912.538210466427</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>691.7456313228969</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>372.3074987251935</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>841.9378825128756</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2182.462224957687</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2919.747202874793</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3602.609239333932</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4150.915188021279</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4514.497374127287</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4640.581161304025</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4555.113898070874</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4353.904749750192</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4100.461420469742</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.198054476972</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3093.963640945778</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2703.824308969966</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.3991132778466</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C18" t="n">
-        <v>768.9460839967196</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D18" t="n">
-        <v>620.0116743354683</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>240.4596049779263</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>570.9683475412851</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1061.700680385036</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1061.700680385036</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1586.31563634397</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2133.192111344164</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.643795685161</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U18" t="n">
-        <v>2016.615714228345</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V18" t="n">
-        <v>1781.463605996603</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W18" t="n">
-        <v>1527.226249268401</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.374749062868</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y18" t="n">
-        <v>1111.614450297915</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>1034.164739009914</v>
       </c>
       <c r="C19" t="n">
-        <v>555.8158034133954</v>
+        <v>865.2285560820071</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>715.1119166696714</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>567.1988230872782</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>420.3088755893679</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>253.0946807639467</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.4425088264937</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>171.7937461156343</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>431.4224730861979</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>819.184291169332</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2310.662640856732</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2208.696992124549</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>2208.696992124549</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1954.012503918662</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1664.595333881701</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>1436.605782983684</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>1215.813203840154</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>372.3074987251935</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>841.9378825128754</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2182.462224957687</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2919.747202874793</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3602.609239333932</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4150.91518802128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4514.497374127287</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4640.581161304025</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4555.113898070874</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4353.904749750192</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.198054476972</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3093.963640945778</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2703.824308969966</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>943.3991132778466</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C21" t="n">
-        <v>768.9460839967196</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D21" t="n">
-        <v>620.0116743354683</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568978</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028057</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1383.80319137071</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2005.899154770046</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R21" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S21" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T21" t="n">
-        <v>2244.643795685161</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U21" t="n">
-        <v>2016.615714228345</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V21" t="n">
-        <v>1781.463605996603</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W21" t="n">
-        <v>1527.226249268401</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X21" t="n">
-        <v>1319.374749062868</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y21" t="n">
-        <v>1111.614450297915</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>346.1458964396801</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>199.2559489417697</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>199.2559489417697</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>171.7937461156344</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>819.1842911693323</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U22" t="n">
-        <v>2044.506784258106</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V22" t="n">
-        <v>1789.822296052219</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>675.7074548523129</v>
       </c>
     </row>
     <row r="23">
@@ -5989,19 +5989,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6177,22 +6177,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6211,25 +6211,25 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6360,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D28" t="n">
         <v>779.6143379232838</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>779.6143379232838</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797186</v>
@@ -6490,25 +6490,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>950.7540666811332</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>781.8178837532263</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797186</v>
@@ -6654,19 +6654,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1581.18466155292</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6697,22 +6697,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1052.829365488567</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C34" t="n">
-        <v>883.8931825606599</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>733.7765431483241</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>585.863449565931</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>438.9735020680206</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>271.7774027829005</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6885,25 +6885,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>2227.361618603201</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1972.677130397314</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W34" t="n">
-        <v>1683.259960360354</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X34" t="n">
-        <v>1455.270409462336</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y34" t="n">
-        <v>1234.477830318806</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6919,37 +6919,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1052.829365488567</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C37" t="n">
-        <v>883.8931825606599</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D37" t="n">
-        <v>733.7765431483241</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>585.863449565931</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>438.9735020680206</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>271.7774027829005</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7122,25 +7122,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U37" t="n">
-        <v>2227.361618603201</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V37" t="n">
-        <v>1972.677130397314</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W37" t="n">
-        <v>1683.259960360354</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X37" t="n">
-        <v>1455.270409462336</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y37" t="n">
-        <v>1234.477830318806</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="38">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7393,16 +7393,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7411,19 +7411,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7645,22 +7645,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>99.37288961069086</v>
       </c>
       <c r="K3" t="n">
-        <v>97.32166909127264</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8145,7 +8145,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>178.5096609094458</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
         <v>171.8177168444618</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>87.83296830063495</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>97.32166909127267</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>211.0329012241567</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>168.7434581780646</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>84.37879995887664</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23269,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23311,13 +23311,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>2.569396338537359</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23421,22 +23421,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>36.36274399379613</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>81.29336059121944</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>27.98010635618914</v>
       </c>
     </row>
     <row r="14">
@@ -23548,10 +23548,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>200.6994665666748</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.9363529330115</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>31.11053304107992</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>146.7585890948905</v>
       </c>
       <c r="E16" t="n">
-        <v>24.63391537253447</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>86.43436349603083</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.0214693750427</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23791,7 +23791,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>50.29152613729252</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23892,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>142.4141550350972</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>63.57833957387541</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>67.18075159108359</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>50.29152613729244</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24129,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>35.07410733342158</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,13 +24183,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>226.4057028288546</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>226.4057028288546</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>83.27114962944304</v>
       </c>
     </row>
     <row r="29">
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>146.346986892407</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>45.37941682721005</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25125,19 +25125,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>260.4525338942707</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>45.37941682721005</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>125.5054897610403</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>918355.8408013927</v>
+        <v>921589.5822722153</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>897979.2755729207</v>
+        <v>760562.665141235</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>898230.3070642162</v>
+        <v>851068.3825337436</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>898230.3070642162</v>
+        <v>893316.7962070433</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>898230.3070642164</v>
+        <v>893316.7962070433</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>898230.3070642164</v>
+        <v>898230.3070642162</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>898230.3070642164</v>
+        <v>898230.3070642162</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>898230.3070642162</v>
+        <v>898230.3070642164</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>898230.3070642162</v>
+        <v>898230.3070642164</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>898230.3070642162</v>
+        <v>898230.3070642164</v>
       </c>
     </row>
   </sheetData>
@@ -26316,22 +26316,22 @@
         <v>533677.1504117842</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.150411784</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.150411784</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="E2" t="n">
-        <v>524496.9530081926</v>
+        <v>443296.2286621968</v>
       </c>
       <c r="F2" t="n">
-        <v>524645.289798504</v>
+        <v>496776.8798486792</v>
       </c>
       <c r="G2" t="n">
-        <v>524645.289798504</v>
+        <v>521741.8515647198</v>
       </c>
       <c r="H2" t="n">
-        <v>524645.2897985039</v>
+        <v>521741.8515647199</v>
       </c>
       <c r="I2" t="n">
         <v>524645.289798504</v>
@@ -26343,19 +26343,19 @@
         <v>524645.289798504</v>
       </c>
       <c r="L2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="M2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="N2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="O2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985041</v>
       </c>
     </row>
     <row r="3">
@@ -26368,43 +26368,43 @@
         <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>308174.1417414033</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059436</v>
+        <v>99404.18284596104</v>
       </c>
       <c r="E3" t="n">
-        <v>506886.0326267303</v>
+        <v>182072.9798171903</v>
       </c>
       <c r="F3" t="n">
-        <v>585.0966390524521</v>
+        <v>208781.7516454577</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>95052.24834831795</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.482032298052218e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10818.91345744854</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.1544191141</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>71651.52831447145</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.64613756983</v>
+        <v>24921.83922824965</v>
       </c>
       <c r="M3" t="n">
-        <v>132447.3436061346</v>
+        <v>47552.26579341477</v>
       </c>
       <c r="N3" t="n">
-        <v>157.2049554786157</v>
+        <v>54893.66793774206</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>25177.21277645518</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>251227.3656190198</v>
       </c>
       <c r="C4" t="n">
-        <v>251227.3656190198</v>
+        <v>168399.8133469395</v>
       </c>
       <c r="D4" t="n">
-        <v>140338.6838374606</v>
+        <v>140338.6838374607</v>
       </c>
       <c r="E4" t="n">
-        <v>11166.69849988048</v>
+        <v>10990.29103211609</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179351</v>
+        <v>11106.28211634256</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179351</v>
+        <v>11160.49963056816</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179351</v>
+        <v>11160.49963056816</v>
       </c>
       <c r="I4" t="n">
         <v>11167.03225179351</v>
@@ -26472,22 +26472,22 @@
         <v>63047.80320426621</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426621</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
-        <v>101072.4410767589</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>91920.00353567499</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239071</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-460685.999002695</v>
       </c>
       <c r="C6" t="n">
-        <v>219401.981588498</v>
+        <v>-28095.88653243071</v>
       </c>
       <c r="D6" t="n">
-        <v>-90727.66967146506</v>
+        <v>200996.5112885176</v>
       </c>
       <c r="E6" t="n">
-        <v>-94981.30371069981</v>
+        <v>175578.998321691</v>
       </c>
       <c r="F6" t="n">
-        <v>411423.2518293939</v>
+        <v>184826.9184336536</v>
       </c>
       <c r="G6" t="n">
-        <v>412008.3484684463</v>
+        <v>315341.0700764298</v>
       </c>
       <c r="H6" t="n">
-        <v>412008.3484684462</v>
+        <v>410393.3184247473</v>
       </c>
       <c r="I6" t="n">
-        <v>412008.3484684463</v>
+        <v>401502.0763399191</v>
       </c>
       <c r="J6" t="n">
-        <v>343009.1940493321</v>
+        <v>343321.8353782534</v>
       </c>
       <c r="K6" t="n">
-        <v>412008.3484684464</v>
+        <v>340669.4614828962</v>
       </c>
       <c r="L6" t="n">
-        <v>316625.7023308764</v>
+        <v>387399.150569118</v>
       </c>
       <c r="M6" t="n">
-        <v>279561.0048623116</v>
+        <v>364768.7240039527</v>
       </c>
       <c r="N6" t="n">
-        <v>411851.1435129677</v>
+        <v>357427.3218596254</v>
       </c>
       <c r="O6" t="n">
-        <v>412008.3484684463</v>
+        <v>387143.7770209123</v>
       </c>
       <c r="P6" t="n">
-        <v>412008.3484684463</v>
+        <v>412320.9897973677</v>
       </c>
     </row>
   </sheetData>
@@ -26740,22 +26740,22 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.467948760087</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1272.667109221546</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716385</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26792,22 +26792,22 @@
         <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015063</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.066443976793</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1055.52402228035</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26962,25 +26962,25 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>239.6556507682058</v>
       </c>
       <c r="D3" t="n">
-        <v>320.0098783480611</v>
+        <v>80.35422757985509</v>
       </c>
       <c r="E3" t="n">
-        <v>433.4030566425478</v>
+        <v>155.7118084757589</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5075515815865401</v>
+        <v>182.8904086282478</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>85.37393949483953</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>9.93445162528792</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27014,43 +27014,43 @@
         <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>278.4010767246569</v>
       </c>
       <c r="D4" t="n">
-        <v>376.8709520985328</v>
+        <v>98.46987537387577</v>
       </c>
       <c r="E4" t="n">
-        <v>531.481611876754</v>
+        <v>190.8166233022534</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6418441228554457</v>
+        <v>224.1225668780578</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>104.6212680456561</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>12.56299777364211</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>278.4010767246567</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985331</v>
+        <v>98.46987537387599</v>
       </c>
       <c r="M4" t="n">
-        <v>531.481611876754</v>
+        <v>190.8166233022534</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6418441228554457</v>
+        <v>224.1225668780578</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>104.6212680456561</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27260,19 +27260,19 @@
         <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>278.4010767246569</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985328</v>
+        <v>98.46987537387577</v>
       </c>
       <c r="M4" t="n">
-        <v>531.481611876754</v>
+        <v>190.8166233022534</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6418441228554457</v>
+        <v>224.1225668780578</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>104.6212680456561</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>145.827880911391</v>
       </c>
       <c r="D2" t="n">
         <v>90.9691616191767</v>
@@ -27390,13 +27390,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>143.1621657402052</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>50.47975262776174</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -27435,7 +27435,7 @@
         <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>144.5964234373401</v>
+        <v>106.0172206769628</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>82.02981052690194</v>
       </c>
       <c r="H3" t="n">
-        <v>45.10892924845996</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,16 +27508,16 @@
         <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
@@ -27560,7 +27560,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27593,19 +27593,19 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>217.2707569996565</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>284.3083102460004</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707555</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402052</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>94.74862176965141</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769628</v>
+        <v>173.5658709121379</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27706,16 +27706,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,22 +27745,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>168.0325680232564</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>50.51920908443688</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>46.73836361224004</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27788,13 +27788,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3821593358568</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>140.2009606600991</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2586305026775</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508475</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>203.3002158843207</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,13 +27912,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>130.0686103586467</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>115.3258519193759</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
@@ -28070,10 +28070,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>80.94049690661248</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H5" t="n">
-        <v>25.28116948649916</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388634</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167918</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269073</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.5770185656231</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R5" t="n">
-        <v>155.0658623465206</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T5" t="n">
-        <v>10.8061339609081</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.32079757678718</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H6" t="n">
-        <v>12.75612396528671</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919895</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043656</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N6" t="n">
-        <v>343.517436429399</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q6" t="n">
-        <v>168.5986520825179</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163905</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912174</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244975</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440336</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M7" t="n">
-        <v>173.576239384051</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N7" t="n">
-        <v>169.4489843734694</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555596</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,34 +31515,34 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
         <v>405.5015080147052</v>
@@ -31551,13 +31551,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,34 +31594,34 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31630,10 +31630,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31679,19 +31679,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.497358587980246</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>56.29982363915271</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>211.9369169631086</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
-        <v>466.5814384565888</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>699.2846274857927</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>867.5244153726934</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>965.2880661616871</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>980.907436249786</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>926.2430767905574</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>790.5270366497949</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.6528822177522</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>345.3234514022144</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>125.2710588236</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
-        <v>24.06468721888354</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4397886870384196</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.941346153936792</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>28.40721153933691</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>277.8927083418967</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>474.9629006556617</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>638.6462339940389</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>745.2700320742474</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>335.20029869833</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>561.6681089916668</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.4602564218263</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6214743646019</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>54.63421474527326</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>11.85568910292943</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935096153905785</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.465925809239501</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
-        <v>21.92432219487485</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>74.15711433603884</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
-        <v>174.3409547132327</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>286.4957440189165</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>366.6159153118437</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
-        <v>386.5450793519701</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>377.3539013357141</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>348.5474043823253</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
-        <v>298.2425178738392</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.4876602627732</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>110.8769913863506</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>42.97436160283748</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>10.53622845765968</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345050441403366</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.116249685312743</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>52.39679208970914</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>197.2442159930197</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>434.2352967288128</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>650.8061459081014</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>807.3825722149915</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>898.3686775561719</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>912.9052219745668</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>862.0305141662382</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>735.7231000600797</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>552.4974082048169</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>321.3836192950269</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>116.5865397040643</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>22.39638299745654</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4092999748250194</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.737434914174646</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>26.43785825005514</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>94.24940384329373</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>442.0357071717892</v>
       </c>
       <c r="L15" t="n">
-        <v>248.7449369209195</v>
+        <v>594.3715588869117</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>693.6035745257424</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>711.9611972615892</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>148.727561162193</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>522.7300056725252</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>349.4311655356969</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>50.84665290144569</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.03378371108113</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.180094402248332</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.29497347564541</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>20.40440053801102</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>69.01611143122746</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>162.2546247281305</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>266.6341910795304</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>341.1999656427731</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>359.7475240050346</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>351.1935319594475</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>324.3840690848623</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>277.5666101816957</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>192.1727334924534</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>103.1903528231109</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>39.99512866192955</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>9.805795759575842</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1251803713988407</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377424</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122281</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>694.4639760830429</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364261</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293306</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229606</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>919.857844208695</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687522</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148605</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4367569201901939</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540904</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>275.9770021735817</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>471.6886536848223</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>634.2436048745723</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9598929192557</v>
+        <v>661.2558090115489</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>694.9967242426203</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982452</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.25758340862159</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291842</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284924</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273332</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900885</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416873</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282423</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851327</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>467.4901056247181</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T22" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>97.32166909127262</v>
       </c>
       <c r="K3" t="n">
-        <v>172.7600739089031</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
         <v>148.2266905659563</v>
@@ -34865,7 +34865,7 @@
         <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458918</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
         <v>213.581156752698</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>246.5110155176337</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823473</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460657</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P6" t="n">
-        <v>215.5616691250137</v>
+        <v>535.1379358731701</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649641</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.48193198348409</v>
       </c>
       <c r="K7" t="n">
-        <v>106.3800667966406</v>
+        <v>156.5898900231598</v>
       </c>
       <c r="L7" t="n">
-        <v>192.2171678043497</v>
+        <v>256.4684548971897</v>
       </c>
       <c r="M7" t="n">
-        <v>213.1601163458916</v>
+        <v>280.9040898900911</v>
       </c>
       <c r="N7" t="n">
-        <v>213.581156752698</v>
+        <v>279.7143300212425</v>
       </c>
       <c r="O7" t="n">
-        <v>181.0986910958077</v>
+        <v>242.1833805735793</v>
       </c>
       <c r="P7" t="n">
-        <v>131.2029511204531</v>
+        <v>183.4714556748827</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>42.74826709349593</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434849</v>
+        <v>397.6203974676415</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>504.1681401741877</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977097</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.461027392702732</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>285.5355339299026</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>479.1947764408122</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>631.7580004027061</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>734.9418329344144</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>751.4943726531951</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>696.1448653688707</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>559.2940408945253</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.3471923433027</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>129.7379135880823</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.05508167523</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
-        <v>337.1214616813027</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>500.0918542141647</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>603.1359981522291</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>192.6040542538856</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
-        <v>427.6937015773366</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.4784823358048</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
-        <v>36.94197040063796</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>80.98177459655994</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>264.2262521930337</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
-        <v>394.2059405721599</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>426.1289563138107</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>421.4860737149427</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>373.132532296365</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
-        <v>295.5210771387327</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.3256170110788</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>253.1893922021266</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>430.7162948631208</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>571.6161572450042</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>668.0224443288992</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>683.4921583779758</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>631.9323027445514</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>504.4901043048101</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>330.1917183303674</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>105.7980814808948</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>304.1942681974302</v>
       </c>
       <c r="L15" t="n">
-        <v>110.1905571410453</v>
+        <v>455.8171791070375</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>551.469540603724</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>580.6194851782559</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>6.131316717748558</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>388.7555982581949</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>209.4493914496754</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>68.89544461145772</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>244.3646992536475</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>368.7899909030892</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>399.3314009668752</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>395.325704338676</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>348.969196998902</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>274.8451694465892</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>106.010690240759</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380623</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>625.7775560664388</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>728.2874363020579</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>744.7323009263696</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870083</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134826</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>367.254733440411</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>127.357360784584</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>149.139375506915</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>333.8472147104633</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>495.6892250946981</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>332.6181808359224</v>
+        <v>529.9140969282156</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>552.4004797981759</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>423.821735783915</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>79.77992211066046</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>262.2512393642056</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>391.6786041243779</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209159</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>325.3560717026998</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
